--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1108.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1108.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9124705969739975</v>
+        <v>1.175219416618347</v>
       </c>
       <c r="B1">
-        <v>1.674686371598171</v>
+        <v>2.400913238525391</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.057613148705001</v>
+        <v>2.352333068847656</v>
       </c>
       <c r="E1">
-        <v>1.343428264694123</v>
+        <v>1.20781409740448</v>
       </c>
     </row>
   </sheetData>
